--- a/Labs/lab5/Ronald_Kameron_ Ex1.xlsx
+++ b/Labs/lab5/Ronald_Kameron_ Ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamer\University\Winter 2023\COMP 2160\COMP-2160\Labs\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18191F12-A411-428C-8DE0-805E8EEC04CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D55BBA9-4478-4FD0-AE00-7304F34669A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDFB717B-4039-4EAE-B9E5-F8257133F1A1}"/>
   </bookViews>
@@ -193,7 +193,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$1</c:f>
@@ -307,135 +307,7 @@
         <c:smooth val="0"/>
         <c:axId val="852433295"/>
         <c:axId val="761694463"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>argument</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>44</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>44</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-2BD0-48B2-97B5-E611113A97A1}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="852433295"/>
@@ -444,6 +316,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Sequence Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -495,20 +422,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -552,37 +520,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1524,7 +1461,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G2" sqref="G2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,12 +1490,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>28</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(C2:E2)</f>
+        <f t="shared" ref="B2:B10" si="0">AVERAGE(C2:E2)</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2">
@@ -1585,7 +1522,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <f>AVERAGE(C3:E3)</f>
+        <f t="shared" si="0"/>
         <v>1.2000000000000002E-2</v>
       </c>
       <c r="C3">
@@ -1610,7 +1547,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <f>AVERAGE(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>3.2333333333333332E-2</v>
       </c>
       <c r="C4">
@@ -1635,7 +1572,7 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <f>AVERAGE(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>8.4666666666666668E-2</v>
       </c>
       <c r="C5">
@@ -1660,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <f>AVERAGE(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>0.22666666666666668</v>
       </c>
       <c r="C6">
@@ -1685,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <f>AVERAGE(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>0.58166666666666655</v>
       </c>
       <c r="C7">
@@ -1710,7 +1647,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <f>AVERAGE(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>1.5419999999999998</v>
       </c>
       <c r="C8">
@@ -1735,7 +1672,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <f>AVERAGE(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>4.085</v>
       </c>
       <c r="C9">
@@ -1760,7 +1697,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <f>AVERAGE(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>10.433999999999999</v>
       </c>
       <c r="C10">
@@ -1772,10 +1709,17 @@
       <c r="E10">
         <v>10.44</v>
       </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:M9"/>
+    <mergeCell ref="G2:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
